--- a/010-外部設計/014-画面レイアウト_画面入出力項目一覧/014-3-外部設計書(画面・帳票仕様)_ショッピング_会員ログイン.xlsx
+++ b/010-外部設計/014-画面レイアウト_画面入出力項目一覧/014-3-外部設計書(画面・帳票仕様)_ショッピング_会員ログイン.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC46D033-5B79-47E5-AE9B-DF446E0AC935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="6516" yWindow="144" windowWidth="14196" windowHeight="12096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面レイアウト図" sheetId="2" r:id="rId1"/>
@@ -21,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="W7" authorId="0" shapeId="0">
+    <comment ref="W7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
   <si>
     <t>業務</t>
   </si>
@@ -284,10 +285,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>会員登情報の変更</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>会員</t>
     <rPh sb="0" eb="2">
       <t>カイイン</t>
@@ -302,11 +299,27 @@
     <t>ショッピング</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>loginButton</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員登録</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>registUser</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-411]yyyy/mm/dd"/>
   </numFmts>
@@ -600,7 +613,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -673,12 +686,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -709,13 +716,40 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -724,32 +758,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -785,7 +801,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -917,6 +939,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -952,6 +991,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1127,7 +1183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -1137,80 +1193,80 @@
       <selection activeCell="AD2" sqref="AD2:AL2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1020" width="2.625" style="4" customWidth="1"/>
+    <col min="1" max="1020" width="2.6328125" style="4" customWidth="1"/>
     <col min="1021" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="25" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="24" t="s">
-        <v>43</v>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="34" t="s">
+        <v>42</v>
       </c>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="25" t="s">
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="24" t="s">
-        <v>42</v>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="34" t="s">
+        <v>41</v>
       </c>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="25" t="s">
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="24" t="s">
+      <c r="AN1" s="35"/>
+      <c r="AO1" s="35"/>
+      <c r="AP1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="AQ1" s="24"/>
-      <c r="AR1" s="24"/>
-      <c r="AS1" s="24"/>
-      <c r="AT1" s="24"/>
-      <c r="AU1" s="24"/>
-      <c r="AV1" s="24"/>
-      <c r="AW1" s="25" t="s">
+      <c r="AQ1" s="34"/>
+      <c r="AR1" s="34"/>
+      <c r="AS1" s="34"/>
+      <c r="AT1" s="34"/>
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="34"/>
+      <c r="AW1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="AX1" s="25"/>
-      <c r="AY1" s="25"/>
+      <c r="AX1" s="35"/>
+      <c r="AY1" s="35"/>
       <c r="AZ1" s="36" t="s">
         <v>39</v>
       </c>
@@ -1417,62 +1473,62 @@
       <c r="IS1" s="7"/>
       <c r="IT1" s="7"/>
     </row>
-    <row r="2" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="25" t="s">
+    <row r="2" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="AN2" s="25"/>
-      <c r="AO2" s="25"/>
-      <c r="AP2" s="24"/>
-      <c r="AQ2" s="24"/>
-      <c r="AR2" s="24"/>
-      <c r="AS2" s="24"/>
-      <c r="AT2" s="24"/>
-      <c r="AU2" s="24"/>
-      <c r="AV2" s="24"/>
-      <c r="AW2" s="25" t="s">
+      <c r="AN2" s="35"/>
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="34"/>
+      <c r="AQ2" s="34"/>
+      <c r="AR2" s="34"/>
+      <c r="AS2" s="34"/>
+      <c r="AT2" s="34"/>
+      <c r="AU2" s="34"/>
+      <c r="AV2" s="34"/>
+      <c r="AW2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="AX2" s="25"/>
-      <c r="AY2" s="25"/>
+      <c r="AX2" s="35"/>
+      <c r="AY2" s="35"/>
       <c r="AZ2" s="36"/>
       <c r="BA2" s="36"/>
       <c r="BB2" s="36"/>
@@ -1677,7 +1733,7 @@
       <c r="IS2" s="7"/>
       <c r="IT2" s="7"/>
     </row>
-    <row r="3" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1933,72 +1989,72 @@
       <c r="IS3" s="7"/>
       <c r="IT3" s="7"/>
     </row>
-    <row r="4" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="28" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="27" t="s">
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="27"/>
-      <c r="AC4" s="28" t="s">
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="AD4" s="29"/>
-      <c r="AE4" s="29"/>
-      <c r="AF4" s="29"/>
-      <c r="AG4" s="29"/>
-      <c r="AH4" s="29"/>
-      <c r="AI4" s="29"/>
-      <c r="AJ4" s="29"/>
-      <c r="AK4" s="29"/>
-      <c r="AL4" s="29"/>
-      <c r="AM4" s="29"/>
-      <c r="AN4" s="29"/>
-      <c r="AO4" s="29"/>
-      <c r="AP4" s="29"/>
-      <c r="AQ4" s="29"/>
-      <c r="AR4" s="29"/>
-      <c r="AS4" s="29"/>
-      <c r="AT4" s="29"/>
-      <c r="AU4" s="29"/>
-      <c r="AV4" s="29"/>
-      <c r="AW4" s="29"/>
-      <c r="AX4" s="29"/>
-      <c r="AY4" s="29"/>
-      <c r="AZ4" s="29"/>
-      <c r="BA4" s="29"/>
-      <c r="BB4" s="29"/>
-      <c r="BC4" s="29"/>
-      <c r="BD4" s="29"/>
-      <c r="BE4" s="29"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="27"/>
+      <c r="AG4" s="27"/>
+      <c r="AH4" s="27"/>
+      <c r="AI4" s="27"/>
+      <c r="AJ4" s="27"/>
+      <c r="AK4" s="27"/>
+      <c r="AL4" s="27"/>
+      <c r="AM4" s="27"/>
+      <c r="AN4" s="27"/>
+      <c r="AO4" s="27"/>
+      <c r="AP4" s="27"/>
+      <c r="AQ4" s="27"/>
+      <c r="AR4" s="27"/>
+      <c r="AS4" s="27"/>
+      <c r="AT4" s="27"/>
+      <c r="AU4" s="27"/>
+      <c r="AV4" s="27"/>
+      <c r="AW4" s="27"/>
+      <c r="AX4" s="27"/>
+      <c r="AY4" s="27"/>
+      <c r="AZ4" s="27"/>
+      <c r="BA4" s="27"/>
+      <c r="BB4" s="27"/>
+      <c r="BC4" s="27"/>
+      <c r="BD4" s="27"/>
+      <c r="BE4" s="27"/>
       <c r="BF4" s="7"/>
       <c r="BG4" s="7"/>
       <c r="BH4" s="7"/>
@@ -2197,64 +2253,64 @@
       <c r="IS4" s="7"/>
       <c r="IT4" s="7"/>
     </row>
-    <row r="5" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="27"/>
-      <c r="AC5" s="29"/>
-      <c r="AD5" s="29"/>
-      <c r="AE5" s="29"/>
-      <c r="AF5" s="29"/>
-      <c r="AG5" s="29"/>
-      <c r="AH5" s="29"/>
-      <c r="AI5" s="29"/>
-      <c r="AJ5" s="29"/>
-      <c r="AK5" s="29"/>
-      <c r="AL5" s="29"/>
-      <c r="AM5" s="29"/>
-      <c r="AN5" s="29"/>
-      <c r="AO5" s="29"/>
-      <c r="AP5" s="29"/>
-      <c r="AQ5" s="29"/>
-      <c r="AR5" s="29"/>
-      <c r="AS5" s="29"/>
-      <c r="AT5" s="29"/>
-      <c r="AU5" s="29"/>
-      <c r="AV5" s="29"/>
-      <c r="AW5" s="29"/>
-      <c r="AX5" s="29"/>
-      <c r="AY5" s="29"/>
-      <c r="AZ5" s="29"/>
-      <c r="BA5" s="29"/>
-      <c r="BB5" s="29"/>
-      <c r="BC5" s="29"/>
-      <c r="BD5" s="29"/>
-      <c r="BE5" s="29"/>
+    <row r="5" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="27"/>
+      <c r="AG5" s="27"/>
+      <c r="AH5" s="27"/>
+      <c r="AI5" s="27"/>
+      <c r="AJ5" s="27"/>
+      <c r="AK5" s="27"/>
+      <c r="AL5" s="27"/>
+      <c r="AM5" s="27"/>
+      <c r="AN5" s="27"/>
+      <c r="AO5" s="27"/>
+      <c r="AP5" s="27"/>
+      <c r="AQ5" s="27"/>
+      <c r="AR5" s="27"/>
+      <c r="AS5" s="27"/>
+      <c r="AT5" s="27"/>
+      <c r="AU5" s="27"/>
+      <c r="AV5" s="27"/>
+      <c r="AW5" s="27"/>
+      <c r="AX5" s="27"/>
+      <c r="AY5" s="27"/>
+      <c r="AZ5" s="27"/>
+      <c r="BA5" s="27"/>
+      <c r="BB5" s="27"/>
+      <c r="BC5" s="27"/>
+      <c r="BD5" s="27"/>
+      <c r="BE5" s="27"/>
       <c r="BF5" s="7"/>
       <c r="BG5" s="7"/>
       <c r="BH5" s="7"/>
@@ -2453,7 +2509,7 @@
       <c r="IS5" s="7"/>
       <c r="IT5" s="7"/>
     </row>
-    <row r="6" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -2709,7 +2765,7 @@
       <c r="IS6" s="7"/>
       <c r="IT6" s="7"/>
     </row>
-    <row r="7" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -2965,7 +3021,7 @@
       <c r="IS7" s="7"/>
       <c r="IT7" s="7"/>
     </row>
-    <row r="8" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -3221,7 +3277,7 @@
       <c r="IS8" s="7"/>
       <c r="IT8" s="7"/>
     </row>
-    <row r="9" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -3477,7 +3533,7 @@
       <c r="IS9" s="7"/>
       <c r="IT9" s="7"/>
     </row>
-    <row r="10" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -3733,7 +3789,7 @@
       <c r="IS10" s="7"/>
       <c r="IT10" s="7"/>
     </row>
-    <row r="11" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -3989,7 +4045,7 @@
       <c r="IS11" s="7"/>
       <c r="IT11" s="7"/>
     </row>
-    <row r="12" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -4245,7 +4301,7 @@
       <c r="IS12" s="7"/>
       <c r="IT12" s="7"/>
     </row>
-    <row r="13" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -4501,7 +4557,7 @@
       <c r="IS13" s="7"/>
       <c r="IT13" s="7"/>
     </row>
-    <row r="14" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -4757,7 +4813,7 @@
       <c r="IS14" s="7"/>
       <c r="IT14" s="7"/>
     </row>
-    <row r="15" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -5013,7 +5069,7 @@
       <c r="IS15" s="7"/>
       <c r="IT15" s="7"/>
     </row>
-    <row r="16" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -5269,7 +5325,7 @@
       <c r="IS16" s="7"/>
       <c r="IT16" s="7"/>
     </row>
-    <row r="17" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -5525,7 +5581,7 @@
       <c r="IS17" s="7"/>
       <c r="IT17" s="7"/>
     </row>
-    <row r="18" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -5781,7 +5837,7 @@
       <c r="IS18" s="7"/>
       <c r="IT18" s="7"/>
     </row>
-    <row r="19" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -6037,7 +6093,7 @@
       <c r="IS19" s="7"/>
       <c r="IT19" s="7"/>
     </row>
-    <row r="20" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -6293,7 +6349,7 @@
       <c r="IS20" s="7"/>
       <c r="IT20" s="7"/>
     </row>
-    <row r="21" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -6549,7 +6605,7 @@
       <c r="IS21" s="7"/>
       <c r="IT21" s="7"/>
     </row>
-    <row r="22" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -6805,7 +6861,7 @@
       <c r="IS22" s="7"/>
       <c r="IT22" s="7"/>
     </row>
-    <row r="23" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -7061,7 +7117,7 @@
       <c r="IS23" s="7"/>
       <c r="IT23" s="7"/>
     </row>
-    <row r="24" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -7317,7 +7373,7 @@
       <c r="IS24" s="7"/>
       <c r="IT24" s="7"/>
     </row>
-    <row r="25" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A25" s="18"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
@@ -7378,7 +7434,7 @@
       <c r="BF25" s="6"/>
       <c r="BG25" s="6"/>
     </row>
-    <row r="26" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A26" s="18"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -7439,7 +7495,7 @@
       <c r="BF26" s="6"/>
       <c r="BG26" s="6"/>
     </row>
-    <row r="27" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A27" s="18"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -7500,7 +7556,7 @@
       <c r="BF27" s="6"/>
       <c r="BG27" s="6"/>
     </row>
-    <row r="28" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A28" s="18"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
@@ -7561,7 +7617,7 @@
       <c r="BF28" s="6"/>
       <c r="BG28" s="6"/>
     </row>
-    <row r="29" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A29" s="18"/>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
@@ -7622,7 +7678,7 @@
       <c r="BF29" s="6"/>
       <c r="BG29" s="6"/>
     </row>
-    <row r="30" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A30" s="18"/>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
@@ -7683,7 +7739,7 @@
       <c r="BF30" s="6"/>
       <c r="BG30" s="6"/>
     </row>
-    <row r="31" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A31" s="18"/>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -7744,7 +7800,7 @@
       <c r="BF31" s="6"/>
       <c r="BG31" s="6"/>
     </row>
-    <row r="32" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A32" s="18"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -7805,7 +7861,7 @@
       <c r="BF32" s="6"/>
       <c r="BG32" s="6"/>
     </row>
-    <row r="33" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A33" s="18"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
@@ -7865,7 +7921,7 @@
       <c r="BE33" s="20"/>
       <c r="BF33" s="6"/>
     </row>
-    <row r="34" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A34" s="18"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
@@ -7924,7 +7980,7 @@
       <c r="BD34" s="19"/>
       <c r="BE34" s="20"/>
     </row>
-    <row r="35" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A35" s="18"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
@@ -7983,7 +8039,7 @@
       <c r="BD35" s="19"/>
       <c r="BE35" s="20"/>
     </row>
-    <row r="36" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A36" s="18"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
@@ -8042,7 +8098,7 @@
       <c r="BD36" s="19"/>
       <c r="BE36" s="20"/>
     </row>
-    <row r="37" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A37" s="18"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -8101,7 +8157,7 @@
       <c r="BD37" s="19"/>
       <c r="BE37" s="20"/>
     </row>
-    <row r="38" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A38" s="21"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -8162,6 +8218,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="AD1:AL1"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:Y2"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="AD2:AL2"/>
     <mergeCell ref="A4:E5"/>
     <mergeCell ref="F4:W5"/>
     <mergeCell ref="X4:AB5"/>
@@ -8178,11 +8239,6 @@
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="Q1:Y1"/>
     <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="AD1:AL1"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:Y2"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="AD2:AL2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -8194,89 +8250,89 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:HY16"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2:AJ2"/>
+      <selection sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="55" width="2.5" style="1" customWidth="1"/>
-    <col min="56" max="1016" width="2.625" style="1" customWidth="1"/>
+    <col min="1" max="55" width="2.453125" style="1" customWidth="1"/>
+    <col min="56" max="1016" width="2.6328125" style="1" customWidth="1"/>
     <col min="1017" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="25" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="24" t="s">
-        <v>44</v>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="34" t="s">
+        <v>43</v>
       </c>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="25" t="s">
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="24" t="s">
-        <v>42</v>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="34" t="s">
+        <v>41</v>
       </c>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="25" t="s">
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="25"/>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="24" t="s">
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="24"/>
-      <c r="AR1" s="24"/>
-      <c r="AS1" s="24"/>
-      <c r="AT1" s="24"/>
-      <c r="AU1" s="25" t="s">
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="34"/>
+      <c r="AQ1" s="34"/>
+      <c r="AR1" s="34"/>
+      <c r="AS1" s="34"/>
+      <c r="AT1" s="34"/>
+      <c r="AU1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="AV1" s="25"/>
-      <c r="AW1" s="25"/>
+      <c r="AV1" s="35"/>
+      <c r="AW1" s="35"/>
       <c r="AX1" s="36" t="s">
         <v>39</v>
       </c>
@@ -8464,60 +8520,60 @@
       <c r="HX1" s="3"/>
       <c r="HY1" s="3"/>
     </row>
-    <row r="2" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="25" t="s">
+    <row r="2" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="25"/>
-      <c r="AM2" s="25"/>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="24"/>
-      <c r="AP2" s="24"/>
-      <c r="AQ2" s="24"/>
-      <c r="AR2" s="24"/>
-      <c r="AS2" s="24"/>
-      <c r="AT2" s="24"/>
-      <c r="AU2" s="25" t="s">
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="34"/>
+      <c r="AQ2" s="34"/>
+      <c r="AR2" s="34"/>
+      <c r="AS2" s="34"/>
+      <c r="AT2" s="34"/>
+      <c r="AU2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="AV2" s="25"/>
-      <c r="AW2" s="25"/>
+      <c r="AV2" s="35"/>
+      <c r="AW2" s="35"/>
       <c r="AX2" s="36"/>
       <c r="AY2" s="36"/>
       <c r="AZ2" s="36"/>
@@ -8703,7 +8759,7 @@
       <c r="HX2" s="3"/>
       <c r="HY2" s="3"/>
     </row>
-    <row r="3" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -8938,70 +8994,70 @@
       <c r="HX3" s="3"/>
       <c r="HY3" s="3"/>
     </row>
-    <row r="4" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="45" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="47" t="s">
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="45" t="s">
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="AD4" s="45"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="45"/>
-      <c r="AG4" s="45"/>
-      <c r="AH4" s="45"/>
-      <c r="AI4" s="45"/>
-      <c r="AJ4" s="45"/>
-      <c r="AK4" s="45"/>
-      <c r="AL4" s="45"/>
-      <c r="AM4" s="45"/>
-      <c r="AN4" s="45"/>
-      <c r="AO4" s="45"/>
-      <c r="AP4" s="45"/>
-      <c r="AQ4" s="45"/>
-      <c r="AR4" s="45"/>
-      <c r="AS4" s="45"/>
-      <c r="AT4" s="45"/>
-      <c r="AU4" s="45"/>
-      <c r="AV4" s="45"/>
-      <c r="AW4" s="45"/>
-      <c r="AX4" s="45"/>
-      <c r="AY4" s="45"/>
-      <c r="AZ4" s="45"/>
-      <c r="BA4" s="45"/>
-      <c r="BB4" s="45"/>
-      <c r="BC4" s="45"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="38"/>
+      <c r="AJ4" s="38"/>
+      <c r="AK4" s="38"/>
+      <c r="AL4" s="38"/>
+      <c r="AM4" s="38"/>
+      <c r="AN4" s="38"/>
+      <c r="AO4" s="38"/>
+      <c r="AP4" s="38"/>
+      <c r="AQ4" s="38"/>
+      <c r="AR4" s="38"/>
+      <c r="AS4" s="38"/>
+      <c r="AT4" s="38"/>
+      <c r="AU4" s="38"/>
+      <c r="AV4" s="38"/>
+      <c r="AW4" s="38"/>
+      <c r="AX4" s="38"/>
+      <c r="AY4" s="38"/>
+      <c r="AZ4" s="38"/>
+      <c r="BA4" s="38"/>
+      <c r="BB4" s="38"/>
+      <c r="BC4" s="38"/>
       <c r="BD4" s="3"/>
       <c r="BE4" s="3"/>
       <c r="BF4" s="3"/>
@@ -9181,62 +9237,62 @@
       <c r="HX4" s="3"/>
       <c r="HY4" s="3"/>
     </row>
-    <row r="5" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="46"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="48"/>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="46"/>
-      <c r="AD5" s="46"/>
-      <c r="AE5" s="46"/>
-      <c r="AF5" s="46"/>
-      <c r="AG5" s="46"/>
-      <c r="AH5" s="46"/>
-      <c r="AI5" s="46"/>
-      <c r="AJ5" s="46"/>
-      <c r="AK5" s="46"/>
-      <c r="AL5" s="46"/>
-      <c r="AM5" s="46"/>
-      <c r="AN5" s="46"/>
-      <c r="AO5" s="46"/>
-      <c r="AP5" s="46"/>
-      <c r="AQ5" s="46"/>
-      <c r="AR5" s="46"/>
-      <c r="AS5" s="46"/>
-      <c r="AT5" s="46"/>
-      <c r="AU5" s="46"/>
-      <c r="AV5" s="46"/>
-      <c r="AW5" s="46"/>
-      <c r="AX5" s="46"/>
-      <c r="AY5" s="46"/>
-      <c r="AZ5" s="46"/>
-      <c r="BA5" s="46"/>
-      <c r="BB5" s="46"/>
-      <c r="BC5" s="46"/>
+    <row r="5" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="49"/>
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="39"/>
+      <c r="AD5" s="39"/>
+      <c r="AE5" s="39"/>
+      <c r="AF5" s="39"/>
+      <c r="AG5" s="39"/>
+      <c r="AH5" s="39"/>
+      <c r="AI5" s="39"/>
+      <c r="AJ5" s="39"/>
+      <c r="AK5" s="39"/>
+      <c r="AL5" s="39"/>
+      <c r="AM5" s="39"/>
+      <c r="AN5" s="39"/>
+      <c r="AO5" s="39"/>
+      <c r="AP5" s="39"/>
+      <c r="AQ5" s="39"/>
+      <c r="AR5" s="39"/>
+      <c r="AS5" s="39"/>
+      <c r="AT5" s="39"/>
+      <c r="AU5" s="39"/>
+      <c r="AV5" s="39"/>
+      <c r="AW5" s="39"/>
+      <c r="AX5" s="39"/>
+      <c r="AY5" s="39"/>
+      <c r="AZ5" s="39"/>
+      <c r="BA5" s="39"/>
+      <c r="BB5" s="39"/>
+      <c r="BC5" s="39"/>
       <c r="BD5" s="3"/>
       <c r="BE5" s="3"/>
       <c r="BF5" s="3"/>
@@ -9416,7 +9472,7 @@
       <c r="HX5" s="3"/>
       <c r="HY5" s="3"/>
     </row>
-    <row r="6" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -9636,72 +9692,72 @@
       <c r="HQ6" s="3"/>
       <c r="HR6" s="3"/>
     </row>
-    <row r="7" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+    <row r="7" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27" t="s">
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27" t="s">
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="27"/>
-      <c r="AC7" s="27"/>
-      <c r="AD7" s="27"/>
-      <c r="AE7" s="27" t="s">
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="25"/>
+      <c r="AE7" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="AF7" s="27"/>
-      <c r="AG7" s="27"/>
-      <c r="AH7" s="27"/>
-      <c r="AI7" s="27"/>
-      <c r="AJ7" s="27"/>
-      <c r="AK7" s="27"/>
-      <c r="AL7" s="27"/>
-      <c r="AM7" s="27"/>
-      <c r="AN7" s="27"/>
-      <c r="AO7" s="27"/>
-      <c r="AP7" s="27"/>
-      <c r="AQ7" s="27"/>
-      <c r="AR7" s="27"/>
-      <c r="AS7" s="27"/>
-      <c r="AT7" s="27"/>
-      <c r="AU7" s="27"/>
-      <c r="AV7" s="27"/>
-      <c r="AW7" s="27"/>
-      <c r="AX7" s="27"/>
-      <c r="AY7" s="27"/>
-      <c r="AZ7" s="27"/>
-      <c r="BA7" s="27"/>
-      <c r="BB7" s="27"/>
-      <c r="BC7" s="27"/>
+      <c r="AF7" s="25"/>
+      <c r="AG7" s="25"/>
+      <c r="AH7" s="25"/>
+      <c r="AI7" s="25"/>
+      <c r="AJ7" s="25"/>
+      <c r="AK7" s="25"/>
+      <c r="AL7" s="25"/>
+      <c r="AM7" s="25"/>
+      <c r="AN7" s="25"/>
+      <c r="AO7" s="25"/>
+      <c r="AP7" s="25"/>
+      <c r="AQ7" s="25"/>
+      <c r="AR7" s="25"/>
+      <c r="AS7" s="25"/>
+      <c r="AT7" s="25"/>
+      <c r="AU7" s="25"/>
+      <c r="AV7" s="25"/>
+      <c r="AW7" s="25"/>
+      <c r="AX7" s="25"/>
+      <c r="AY7" s="25"/>
+      <c r="AZ7" s="25"/>
+      <c r="BA7" s="25"/>
+      <c r="BB7" s="25"/>
+      <c r="BC7" s="25"/>
       <c r="BD7" s="3"/>
       <c r="BE7" s="3"/>
       <c r="CP7" s="3"/>
@@ -9830,62 +9886,62 @@
       <c r="HI7" s="3"/>
       <c r="HJ7" s="3"/>
     </row>
-    <row r="8" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="27"/>
-      <c r="AB8" s="27"/>
-      <c r="AC8" s="27"/>
-      <c r="AD8" s="27"/>
-      <c r="AE8" s="27"/>
-      <c r="AF8" s="27"/>
-      <c r="AG8" s="27"/>
-      <c r="AH8" s="27"/>
-      <c r="AI8" s="27"/>
-      <c r="AJ8" s="27"/>
-      <c r="AK8" s="27"/>
-      <c r="AL8" s="27"/>
-      <c r="AM8" s="27"/>
-      <c r="AN8" s="27"/>
-      <c r="AO8" s="27"/>
-      <c r="AP8" s="27"/>
-      <c r="AQ8" s="27"/>
-      <c r="AR8" s="27"/>
-      <c r="AS8" s="27"/>
-      <c r="AT8" s="27"/>
-      <c r="AU8" s="27"/>
-      <c r="AV8" s="27"/>
-      <c r="AW8" s="27"/>
-      <c r="AX8" s="27"/>
-      <c r="AY8" s="27"/>
-      <c r="AZ8" s="27"/>
-      <c r="BA8" s="27"/>
-      <c r="BB8" s="27"/>
-      <c r="BC8" s="27"/>
+    <row r="8" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="25"/>
+      <c r="AC8" s="25"/>
+      <c r="AD8" s="25"/>
+      <c r="AE8" s="25"/>
+      <c r="AF8" s="25"/>
+      <c r="AG8" s="25"/>
+      <c r="AH8" s="25"/>
+      <c r="AI8" s="25"/>
+      <c r="AJ8" s="25"/>
+      <c r="AK8" s="25"/>
+      <c r="AL8" s="25"/>
+      <c r="AM8" s="25"/>
+      <c r="AN8" s="25"/>
+      <c r="AO8" s="25"/>
+      <c r="AP8" s="25"/>
+      <c r="AQ8" s="25"/>
+      <c r="AR8" s="25"/>
+      <c r="AS8" s="25"/>
+      <c r="AT8" s="25"/>
+      <c r="AU8" s="25"/>
+      <c r="AV8" s="25"/>
+      <c r="AW8" s="25"/>
+      <c r="AX8" s="25"/>
+      <c r="AY8" s="25"/>
+      <c r="AZ8" s="25"/>
+      <c r="BA8" s="25"/>
+      <c r="BB8" s="25"/>
+      <c r="BC8" s="25"/>
       <c r="BD8" s="3"/>
       <c r="BE8" s="3"/>
       <c r="CP8" s="3"/>
@@ -10014,45 +10070,45 @@
       <c r="HI8" s="3"/>
       <c r="HJ8" s="3"/>
     </row>
-    <row r="9" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+    <row r="9" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37" t="s">
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37" t="s">
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="38" t="s">
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="38"/>
-      <c r="Z9" s="38"/>
-      <c r="AA9" s="38"/>
-      <c r="AB9" s="38"/>
-      <c r="AC9" s="38"/>
-      <c r="AD9" s="38"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="42"/>
       <c r="AE9" s="43" t="s">
         <v>32</v>
       </c>
@@ -10208,45 +10264,45 @@
       <c r="HI9" s="3"/>
       <c r="HJ9" s="3"/>
     </row>
-    <row r="10" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+    <row r="10" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="41" t="s">
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37" t="s">
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="38" t="s">
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="X10" s="38"/>
-      <c r="Y10" s="38"/>
-      <c r="Z10" s="38"/>
-      <c r="AA10" s="38"/>
-      <c r="AB10" s="38"/>
-      <c r="AC10" s="38"/>
-      <c r="AD10" s="38"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="42"/>
       <c r="AE10" s="43" t="s">
         <v>32</v>
       </c>
@@ -10402,45 +10458,45 @@
       <c r="HI10" s="3"/>
       <c r="HJ10" s="3"/>
     </row>
-    <row r="11" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+    <row r="11" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="38" t="s">
-        <v>32</v>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="50" t="s">
+        <v>44</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="37" t="s">
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="38" t="s">
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="38"/>
-      <c r="AA11" s="38"/>
-      <c r="AB11" s="38"/>
-      <c r="AC11" s="38"/>
-      <c r="AD11" s="38"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="42"/>
+      <c r="AC11" s="42"/>
+      <c r="AD11" s="42"/>
       <c r="AE11" s="43" t="s">
         <v>32</v>
       </c>
@@ -10596,45 +10652,45 @@
       <c r="HI11" s="3"/>
       <c r="HJ11" s="3"/>
     </row>
-    <row r="12" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
-        <v>41</v>
+    <row r="12" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="45" t="s">
+        <v>45</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="38" t="s">
-        <v>32</v>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="50" t="s">
+        <v>46</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="37" t="s">
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="38" t="s">
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="38"/>
-      <c r="AB12" s="38"/>
-      <c r="AC12" s="38"/>
-      <c r="AD12" s="38"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="42"/>
+      <c r="AD12" s="42"/>
       <c r="AE12" s="43" t="s">
         <v>32</v>
       </c>
@@ -10790,45 +10846,45 @@
       <c r="HI12" s="3"/>
       <c r="HJ12" s="3"/>
     </row>
-    <row r="13" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
+    <row r="13" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="38" t="s">
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="38"/>
-      <c r="AB13" s="38"/>
-      <c r="AC13" s="38"/>
-      <c r="AD13" s="38"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="42"/>
+      <c r="AB13" s="42"/>
+      <c r="AC13" s="42"/>
+      <c r="AD13" s="42"/>
       <c r="AE13" s="43" t="s">
         <v>32</v>
       </c>
@@ -10984,37 +11040,37 @@
       <c r="HI13" s="3"/>
       <c r="HJ13" s="3"/>
     </row>
-    <row r="14" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="42"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="38"/>
-      <c r="AA14" s="38"/>
-      <c r="AB14" s="38"/>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="38"/>
+    <row r="14" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42"/>
+      <c r="AB14" s="42"/>
+      <c r="AC14" s="42"/>
+      <c r="AD14" s="42"/>
       <c r="AE14" s="43"/>
       <c r="AF14" s="43"/>
       <c r="AG14" s="43"/>
@@ -11168,37 +11224,37 @@
       <c r="HI14" s="3"/>
       <c r="HJ14" s="3"/>
     </row>
-    <row r="15" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="38"/>
-      <c r="X15" s="38"/>
-      <c r="Y15" s="38"/>
-      <c r="Z15" s="38"/>
-      <c r="AA15" s="38"/>
-      <c r="AB15" s="38"/>
-      <c r="AC15" s="38"/>
-      <c r="AD15" s="38"/>
+    <row r="15" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="42"/>
+      <c r="AB15" s="42"/>
+      <c r="AC15" s="42"/>
+      <c r="AD15" s="42"/>
       <c r="AE15" s="43"/>
       <c r="AF15" s="43"/>
       <c r="AG15" s="43"/>
@@ -11352,37 +11408,37 @@
       <c r="HI15" s="3"/>
       <c r="HJ15" s="3"/>
     </row>
-    <row r="16" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="38"/>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="38"/>
-      <c r="AB16" s="38"/>
-      <c r="AC16" s="38"/>
-      <c r="AD16" s="38"/>
+    <row r="16" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="42"/>
+      <c r="AB16" s="42"/>
+      <c r="AC16" s="42"/>
+      <c r="AD16" s="42"/>
       <c r="AE16" s="43"/>
       <c r="AF16" s="43"/>
       <c r="AG16" s="43"/>
@@ -11538,6 +11594,56 @@
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="AU1:AW1"/>
+    <mergeCell ref="AX1:BC1"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AJ2"/>
+    <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="AN2:AT2"/>
+    <mergeCell ref="AU2:AW2"/>
+    <mergeCell ref="AX2:BC2"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AJ1"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="AN1:AT1"/>
+    <mergeCell ref="Q10:V10"/>
+    <mergeCell ref="W10:AD10"/>
+    <mergeCell ref="A4:E5"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="I10:P10"/>
+    <mergeCell ref="A7:H8"/>
+    <mergeCell ref="I7:P8"/>
+    <mergeCell ref="F4:W5"/>
+    <mergeCell ref="X4:AB5"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="I13:P13"/>
+    <mergeCell ref="Q13:V13"/>
+    <mergeCell ref="W13:AD13"/>
+    <mergeCell ref="AE13:BC13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="I14:P14"/>
+    <mergeCell ref="Q14:V14"/>
+    <mergeCell ref="W14:AD14"/>
+    <mergeCell ref="AE14:BC14"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="I15:P15"/>
+    <mergeCell ref="Q15:V15"/>
+    <mergeCell ref="W15:AD15"/>
+    <mergeCell ref="AE15:BC15"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="I12:P12"/>
+    <mergeCell ref="Q12:V12"/>
+    <mergeCell ref="W12:AD12"/>
+    <mergeCell ref="AE12:BC12"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="I11:P11"/>
+    <mergeCell ref="Q11:V11"/>
+    <mergeCell ref="W11:AD11"/>
+    <mergeCell ref="AE11:BC11"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="AC4:BC5"/>
     <mergeCell ref="Q7:V8"/>
@@ -11554,60 +11660,10 @@
     <mergeCell ref="I9:P9"/>
     <mergeCell ref="Q9:V9"/>
     <mergeCell ref="W9:AD9"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="I11:P11"/>
-    <mergeCell ref="Q11:V11"/>
-    <mergeCell ref="W11:AD11"/>
-    <mergeCell ref="AE11:BC11"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="I12:P12"/>
-    <mergeCell ref="Q12:V12"/>
-    <mergeCell ref="W12:AD12"/>
-    <mergeCell ref="AE12:BC12"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="I15:P15"/>
-    <mergeCell ref="Q15:V15"/>
-    <mergeCell ref="W15:AD15"/>
-    <mergeCell ref="AE15:BC15"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="I14:P14"/>
-    <mergeCell ref="Q14:V14"/>
-    <mergeCell ref="W14:AD14"/>
-    <mergeCell ref="AE14:BC14"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="I13:P13"/>
-    <mergeCell ref="Q13:V13"/>
-    <mergeCell ref="W13:AD13"/>
-    <mergeCell ref="AE13:BC13"/>
-    <mergeCell ref="Q10:V10"/>
-    <mergeCell ref="W10:AD10"/>
-    <mergeCell ref="A4:E5"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="I10:P10"/>
-    <mergeCell ref="A7:H8"/>
-    <mergeCell ref="I7:P8"/>
-    <mergeCell ref="F4:W5"/>
-    <mergeCell ref="X4:AB5"/>
-    <mergeCell ref="AU1:AW1"/>
-    <mergeCell ref="AX1:BC1"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AJ2"/>
-    <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="AN2:AT2"/>
-    <mergeCell ref="AU2:AW2"/>
-    <mergeCell ref="AX2:BC2"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AJ1"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="AN1:AT1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q9:Q16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q9:Q16" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>部品種別</formula1>
     </dataValidation>
   </dataValidations>
@@ -11620,60 +11676,60 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -11691,15 +11747,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F5656D937027614D93C88AB71AE3D10C" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b60c200d0ae5f270a77b0ce61d313f15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="75fae816-41bf-471e-909f-5205fc9f8b57" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="893732230ae29545b6addaf499a489b1" ns2:_="">
     <xsd:import namespace="75fae816-41bf-471e-909f-5205fc9f8b57"/>
@@ -11831,6 +11878,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95394263-B60D-443C-8C2B-2F5249E27641}">
   <ds:schemaRefs>
@@ -11841,14 +11897,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85FAE358-A3B2-43B4-B0E0-501399680D83}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FD383F3-16F6-47F1-939A-DDD7BFD65B2A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11864,4 +11912,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85FAE358-A3B2-43B4-B0E0-501399680D83}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>